--- a/Meridian_system_docs/Meridian90.xlsx
+++ b/Meridian_system_docs/Meridian90.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/izumi.n/Desktop/Meridian/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/izumi.n/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BF32A2-9C7D-4F45-AEF7-A9A9161EE628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3508779-EA63-0D44-A0A5-0AAB3DF06195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="21580" windowHeight="16100" xr2:uid="{D34549BF-B831-B240-8FA4-EFC967946BE7}"/>
+    <workbookView xWindow="8240" yWindow="1980" windowWidth="21580" windowHeight="16100" activeTab="1" xr2:uid="{D34549BF-B831-B240-8FA4-EFC967946BE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Meridim90" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="183">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1"/>
@@ -983,6 +983,66 @@
   </si>
   <si>
     <t>バネ硬さ設定（ストレッチ・コンプライアンススロープ）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トリムモードオン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>センサのヨー軸を現在値センターに</t>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ジク </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">ゲンザイチ </t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t xml:space="preserve">アタイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ERROR CODE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーコードを格納</t>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">カクノウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定義はこれから</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">テイギ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘルスチェック１（内容未定だが各種状態を全て取得してレポートするシーケンスへ移行）</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ナイヨウ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">ミテイ </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">カクシュ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">ジョウタイ </t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t xml:space="preserve">スベテ </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">シュトク </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1007,7 +1067,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1059,6 +1119,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCE5D7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD2DD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1246,7 +1312,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1455,6 +1521,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1465,8 +1543,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFD2DD"/>
       <color rgb="FFFCE5D7"/>
-      <color rgb="FFFFD2DD"/>
       <color rgb="FFEAD9FD"/>
       <color rgb="FFF6F4F7"/>
       <color rgb="FFE2B0FF"/>
@@ -1782,7 +1860,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F266B4A8-C57D-D44D-9DD7-AC4E3D56BBF6}">
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0"/>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -3029,17 +3109,21 @@
       </c>
     </row>
     <row r="91" spans="1:5" s="1" customFormat="1">
-      <c r="A91" s="27">
+      <c r="A91" s="70">
         <v>88</v>
       </c>
-      <c r="B91" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C91" s="28"/>
-      <c r="D91" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="E91" s="29"/>
+      <c r="B91" s="71" t="s">
+        <v>179</v>
+      </c>
+      <c r="C91" s="72" t="s">
+        <v>180</v>
+      </c>
+      <c r="D91" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="E91" s="73" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="92" spans="1:5" s="1" customFormat="1">
       <c r="A92" s="48">
@@ -3096,9 +3180,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CB8086-9D32-0243-8579-C596BFD9B71A}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -3165,110 +3251,112 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="10">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="9">
         <v>3</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="5" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="9">
+        <v>102</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="10">
+        <v>103</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B10" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C10" s="17">
         <v>0</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D10" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="13"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18">
-        <v>1</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="13"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18">
-        <v>2</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="13"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18">
-        <v>3</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>143</v>
-      </c>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="13"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>175</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="13"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="13"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18">
-        <v>6</v>
-      </c>
-      <c r="D13" s="14"/>
+        <v>3</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="13"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="13"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18">
-        <v>8</v>
-      </c>
-      <c r="D15" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="13"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D16" s="14"/>
     </row>
@@ -3276,439 +3364,465 @@
       <c r="A17" s="13"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18">
-        <v>10</v>
-      </c>
-      <c r="D17" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="13"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="13"/>
-      <c r="B19" s="18" t="s">
-        <v>163</v>
-      </c>
+      <c r="B19" s="18"/>
       <c r="C19" s="18">
-        <v>1001</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>140</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="13"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18">
-        <v>1002</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>141</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="13"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18">
-        <v>1003</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>139</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="13"/>
-      <c r="B22" s="18"/>
+      <c r="B22" s="18" t="s">
+        <v>163</v>
+      </c>
       <c r="C22" s="18">
-        <v>1004</v>
-      </c>
-      <c r="D22" s="14"/>
+        <v>1001</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="13"/>
-      <c r="B23" s="18" t="s">
-        <v>164</v>
-      </c>
+      <c r="B23" s="18"/>
       <c r="C23" s="18">
-        <v>2001</v>
+        <v>1002</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="13"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18">
-        <v>2002</v>
+        <v>1003</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="13"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18">
-        <v>2003</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>139</v>
-      </c>
+        <v>1004</v>
+      </c>
+      <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="13"/>
-      <c r="B26" s="18"/>
+      <c r="B26" s="18" t="s">
+        <v>164</v>
+      </c>
       <c r="C26" s="18">
-        <v>2004</v>
-      </c>
-      <c r="D26" s="14"/>
+        <v>2001</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="13"/>
-      <c r="B27" s="18" t="s">
-        <v>165</v>
-      </c>
+      <c r="B27" s="18"/>
       <c r="C27" s="18">
-        <v>3001</v>
+        <v>2002</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="13"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18">
-        <v>3002</v>
+        <v>2003</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="13"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18">
-        <v>3003</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>146</v>
-      </c>
+        <v>2004</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="13"/>
-      <c r="B30" s="18"/>
+      <c r="B30" s="18" t="s">
+        <v>165</v>
+      </c>
       <c r="C30" s="18">
-        <v>3004</v>
-      </c>
-      <c r="D30" s="14"/>
+        <v>3001</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="13"/>
-      <c r="B31" s="18" t="s">
-        <v>166</v>
-      </c>
+      <c r="B31" s="18"/>
       <c r="C31" s="18">
-        <v>4001</v>
+        <v>3002</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="13"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18">
-        <v>4002</v>
+        <v>3003</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="13"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18">
-        <v>4003</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>149</v>
-      </c>
+        <v>3004</v>
+      </c>
+      <c r="D33" s="14"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="13"/>
-      <c r="B34" s="18"/>
+      <c r="B34" s="18" t="s">
+        <v>166</v>
+      </c>
       <c r="C34" s="18">
-        <v>4004</v>
-      </c>
-      <c r="D34" s="14"/>
+        <v>4001</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="13"/>
-      <c r="B35" s="18" t="s">
-        <v>167</v>
-      </c>
+      <c r="B35" s="18"/>
       <c r="C35" s="18">
-        <v>5001</v>
+        <v>4002</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="13"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18">
-        <v>5002</v>
+        <v>4003</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="13"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18">
-        <v>5003</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>152</v>
-      </c>
+        <v>4004</v>
+      </c>
+      <c r="D37" s="14"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="13"/>
-      <c r="B38" s="18"/>
+      <c r="B38" s="18" t="s">
+        <v>167</v>
+      </c>
       <c r="C38" s="18">
-        <v>5004</v>
-      </c>
-      <c r="D38" s="14"/>
+        <v>5001</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="13"/>
-      <c r="B39" s="18" t="s">
-        <v>168</v>
-      </c>
+      <c r="B39" s="18"/>
       <c r="C39" s="18">
-        <v>6001</v>
+        <v>5002</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="13"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18">
-        <v>6002</v>
+        <v>5003</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="13"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18">
-        <v>6003</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>155</v>
-      </c>
+        <v>5004</v>
+      </c>
+      <c r="D41" s="14"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="13"/>
-      <c r="B42" s="18"/>
+      <c r="B42" s="18" t="s">
+        <v>168</v>
+      </c>
       <c r="C42" s="18">
-        <v>6004</v>
-      </c>
-      <c r="D42" s="14"/>
+        <v>6001</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="13"/>
-      <c r="B43" s="18" t="s">
-        <v>169</v>
-      </c>
+      <c r="B43" s="18"/>
       <c r="C43" s="18">
-        <v>7001</v>
+        <v>6002</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="13"/>
       <c r="B44" s="18"/>
       <c r="C44" s="18">
-        <v>7002</v>
+        <v>6003</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="13"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18">
-        <v>7003</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>158</v>
-      </c>
+        <v>6004</v>
+      </c>
+      <c r="D45" s="14"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="13"/>
-      <c r="B46" s="18"/>
+      <c r="B46" s="18" t="s">
+        <v>169</v>
+      </c>
       <c r="C46" s="18">
-        <v>7004</v>
-      </c>
-      <c r="D46" s="14"/>
+        <v>7001</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="13"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18">
-        <v>8001</v>
+        <v>7002</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="13"/>
       <c r="B48" s="18"/>
       <c r="C48" s="18">
-        <v>8002</v>
+        <v>7003</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="13"/>
       <c r="B49" s="18"/>
       <c r="C49" s="18">
-        <v>8003</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>161</v>
-      </c>
+        <v>7004</v>
+      </c>
+      <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="13"/>
       <c r="B50" s="18"/>
       <c r="C50" s="18">
-        <v>8004</v>
-      </c>
-      <c r="D50" s="14"/>
+        <v>8001</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="13"/>
-      <c r="B51" s="18" t="s">
-        <v>170</v>
-      </c>
+      <c r="B51" s="18"/>
       <c r="C51" s="18">
-        <v>9001</v>
+        <v>8002</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="13"/>
       <c r="B52" s="18"/>
       <c r="C52" s="18">
-        <v>9002</v>
+        <v>8003</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="13"/>
       <c r="B53" s="18"/>
       <c r="C53" s="18">
-        <v>9003</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>161</v>
-      </c>
+        <v>8004</v>
+      </c>
+      <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="13"/>
-      <c r="B54" s="18"/>
+      <c r="B54" s="18" t="s">
+        <v>170</v>
+      </c>
       <c r="C54" s="18">
-        <v>9004</v>
-      </c>
-      <c r="D54" s="14"/>
+        <v>9001</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="13"/>
       <c r="B55" s="18"/>
       <c r="C55" s="18">
-        <v>10001</v>
+        <v>9002</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="13"/>
       <c r="B56" s="18"/>
       <c r="C56" s="18">
-        <v>10002</v>
+        <v>9003</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="13"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18">
-        <v>10003</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>9004</v>
+      </c>
+      <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="13"/>
       <c r="B58" s="18"/>
       <c r="C58" s="18">
-        <v>10004</v>
-      </c>
-      <c r="D58" s="14"/>
+        <v>10001</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>135</v>
+      <c r="A59" s="13"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18">
+        <v>10002</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="13"/>
       <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="14"/>
+      <c r="C60" s="18">
+        <v>10003</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="15"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="16"/>
+      <c r="A61" s="13"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18">
+        <v>10004</v>
+      </c>
+      <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="13"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="15"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Meridian_system_docs/Meridian90.xlsx
+++ b/Meridian_system_docs/Meridian90.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/izumi.n/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA578848-DB62-1E4E-BB6D-5BD7A8865043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6281F45E-A344-C548-ACD9-60424BF8A7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="780" windowWidth="21580" windowHeight="16100" activeTab="1" xr2:uid="{D34549BF-B831-B240-8FA4-EFC967946BE7}"/>
+    <workbookView xWindow="11000" yWindow="660" windowWidth="21580" windowHeight="16100" activeTab="1" xr2:uid="{D34549BF-B831-B240-8FA4-EFC967946BE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Meridim90" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="246">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1"/>
@@ -739,54 +739,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サーボパワーオン、サーボ位置指定＆位置情報取得（ROBOTIZ_TTL値）</t>
-    <rPh sb="12" eb="14">
-      <t xml:space="preserve">イチ </t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t xml:space="preserve">シテイ </t>
-    </rPh>
-    <rPh sb="17" eb="21">
-      <t xml:space="preserve">イチジョウホウ </t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t xml:space="preserve">シュトク </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サーボパワーオン、サーボ位置指定＆位置情報取得（ROBOTIZ_TTL値）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サーボパワーオフ、位置情報取得（ROBOTIZ_TTL値）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サーボパワーオン、サーボ位置指定＆位置情報取得（ROBOTIZ_RS485値）</t>
-    <rPh sb="12" eb="14">
-      <t xml:space="preserve">イチ </t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t xml:space="preserve">シテイ </t>
-    </rPh>
-    <rPh sb="17" eb="21">
-      <t xml:space="preserve">イチジョウホウ </t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t xml:space="preserve">シュトク </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サーボパワーオン、サーボ位置指定＆位置情報取得（ROBOTIZ_RS485値）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サーボパワーオフ、位置情報取得（ROBOTIZ_RS485値）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サーボパワーオン、サーボ位置指定＆位置情報取得（JR_PROPO値）</t>
     <rPh sb="12" eb="14">
       <t xml:space="preserve">イチ </t>
@@ -867,14 +819,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ROBOTIZ_TTLサーボ専用</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ROBOTIZ_RS485サーボ専用</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>JR_PROPOサーボ専用</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1286,6 +1230,107 @@
   </si>
   <si>
     <t>bool : ESP32  SPI受信エラー (0:エラーなし、1:エラー検出)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EEPOROM書き込み信号関連</t>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">カキコミ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">シンゴウ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">カンレン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンアナログ3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L2, R2 Analog</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Index[83]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>char: L2 Analog</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>char: R2 Analog</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ROBOTIS_TTLサーボ専用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ROBOTIS_RS485サーボ専用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーボパワーオフ、位置情報取得（ROBOTIS_TTL値）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーボパワーオン、サーボ位置指定＆位置情報取得（ROBOTIS_TTL値）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーボパワーオン、サーボ位置指定＆位置情報取得（ROBOTIS_TTL値）</t>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">イチ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t xml:space="preserve">イチジョウホウ </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">シュトク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーボパワーオン、サーボ位置指定＆位置情報取得（ROBOTIS_RS485値）</t>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">イチ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t xml:space="preserve">イチジョウホウ </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">シュトク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーボパワーオン、サーボ位置指定＆位置情報取得（ROBOTIS_RS485値）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーボパワーオフ、位置情報取得（ROBOTIS_RS485値）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0~255</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-127~127</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1561,7 +1606,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1839,6 +1884,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2166,8 +2217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F266B4A8-C57D-D44D-9DD7-AC4E3D56BBF6}">
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="91" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2233,7 +2284,7 @@
         <v>101</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1">
@@ -3283,62 +3334,64 @@
       <c r="E82" s="60"/>
     </row>
     <row r="83" spans="1:5" s="1" customFormat="1">
-      <c r="A83" s="77">
+      <c r="A83" s="78">
         <v>80</v>
       </c>
-      <c r="B83" s="78" t="s">
-        <v>218</v>
-      </c>
-      <c r="C83" s="79" t="s">
+      <c r="B83" s="79" t="s">
+        <v>210</v>
+      </c>
+      <c r="C83" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="D83" s="78" t="s">
+      <c r="D83" s="80" t="s">
         <v>101</v>
       </c>
       <c r="E83" s="80"/>
     </row>
     <row r="84" spans="1:5" s="1" customFormat="1">
-      <c r="A84" s="81">
+      <c r="A84" s="82">
         <v>81</v>
       </c>
-      <c r="B84" s="82" t="s">
-        <v>219</v>
-      </c>
-      <c r="C84" s="83" t="s">
+      <c r="B84" s="83" t="s">
+        <v>211</v>
+      </c>
+      <c r="C84" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="D84" s="82" t="s">
+      <c r="D84" s="84" t="s">
         <v>101</v>
       </c>
       <c r="E84" s="84"/>
     </row>
     <row r="85" spans="1:5" s="1" customFormat="1">
-      <c r="A85" s="85">
+      <c r="A85" s="82">
         <v>82</v>
       </c>
-      <c r="B85" s="86" t="s">
-        <v>220</v>
-      </c>
-      <c r="C85" s="87" t="s">
+      <c r="B85" s="83" t="s">
+        <v>212</v>
+      </c>
+      <c r="C85" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="D85" s="86" t="s">
-        <v>101</v>
-      </c>
-      <c r="E85" s="88"/>
+      <c r="D85" s="84" t="s">
+        <v>101</v>
+      </c>
+      <c r="E85" s="84"/>
     </row>
     <row r="86" spans="1:5" s="1" customFormat="1">
-      <c r="A86" s="21">
+      <c r="A86" s="86">
         <v>83</v>
       </c>
-      <c r="B86" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C86" s="22"/>
-      <c r="D86" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="E86" s="23"/>
+      <c r="B86" s="87" t="s">
+        <v>232</v>
+      </c>
+      <c r="C86" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="D86" s="88" t="s">
+        <v>101</v>
+      </c>
+      <c r="E86" s="88"/>
     </row>
     <row r="87" spans="1:5" s="1" customFormat="1">
       <c r="A87" s="21">
@@ -3397,16 +3450,16 @@
         <v>88</v>
       </c>
       <c r="B91" s="65" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C91" s="66" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D91" s="65" t="s">
         <v>101</v>
       </c>
       <c r="E91" s="67" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:5" s="1" customFormat="1">
@@ -3464,10 +3517,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CB8086-9D32-0243-8579-C596BFD9B71A}">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3541,888 +3594,952 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="90" t="s">
-        <v>233</v>
-      </c>
-      <c r="D7" s="91" t="s">
-        <v>234</v>
-      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="7">
+      <c r="C8" s="93" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="90" t="s">
+        <v>225</v>
+      </c>
+      <c r="D9" s="91" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="7">
         <v>1002</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="8">
+      <c r="D10" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="8">
         <v>1003</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="9" t="s">
+      <c r="D11" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="13">
+      <c r="B15" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="13">
         <v>0</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="11"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14">
-        <v>1</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="11"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14">
-        <v>2</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="11"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14">
-        <v>3</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="11"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14">
-        <v>4</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="11"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14">
-        <v>5</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>161</v>
-      </c>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="11"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14">
-        <v>6</v>
-      </c>
-      <c r="D16" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="11"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="11"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14">
-        <v>8</v>
-      </c>
-      <c r="D18" s="12"/>
+        <v>3</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="11"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14">
-        <v>9</v>
-      </c>
-      <c r="D19" s="12"/>
+        <v>4</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="11"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14">
-        <v>10</v>
-      </c>
-      <c r="D20" s="12"/>
+        <v>5</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="11"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="11"/>
-      <c r="B22" s="14" t="s">
-        <v>150</v>
-      </c>
+      <c r="B22" s="14"/>
       <c r="C22" s="14">
-        <v>1001</v>
+        <v>7</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="11"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14">
-        <v>1002</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>128</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="11"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14">
-        <v>1003</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>126</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="11"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14">
-        <v>1004</v>
+        <v>10</v>
       </c>
       <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="11"/>
-      <c r="B26" s="14" t="s">
-        <v>151</v>
-      </c>
+      <c r="B26" s="14"/>
       <c r="C26" s="14">
-        <v>2001</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>127</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="11"/>
-      <c r="B27" s="14"/>
+      <c r="B27" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="C27" s="14">
-        <v>2002</v>
+        <v>1001</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="11"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14">
-        <v>2003</v>
+        <v>1002</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="11"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14">
-        <v>2004</v>
-      </c>
-      <c r="D29" s="12"/>
+        <v>1003</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="11"/>
-      <c r="B30" s="14" t="s">
-        <v>152</v>
-      </c>
+      <c r="B30" s="14"/>
       <c r="C30" s="14">
-        <v>3001</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>131</v>
-      </c>
+        <v>1004</v>
+      </c>
+      <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="11"/>
-      <c r="B31" s="14"/>
+      <c r="B31" s="14" t="s">
+        <v>145</v>
+      </c>
       <c r="C31" s="14">
-        <v>3002</v>
+        <v>2001</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="11"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14">
-        <v>3003</v>
+        <v>2002</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="11"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14">
-        <v>3004</v>
-      </c>
-      <c r="D33" s="12"/>
+        <v>2003</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="11"/>
-      <c r="B34" s="14" t="s">
-        <v>153</v>
-      </c>
+      <c r="B34" s="14"/>
       <c r="C34" s="14">
-        <v>4001</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>134</v>
-      </c>
+        <v>2004</v>
+      </c>
+      <c r="D34" s="12"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="11"/>
-      <c r="B35" s="14"/>
+      <c r="B35" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="C35" s="14">
-        <v>4002</v>
+        <v>3001</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="11"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14">
-        <v>4003</v>
+        <v>3002</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="11"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14">
-        <v>4004</v>
-      </c>
-      <c r="D37" s="12"/>
+        <v>3003</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="11"/>
-      <c r="B38" s="14" t="s">
-        <v>154</v>
-      </c>
+      <c r="B38" s="14"/>
       <c r="C38" s="14">
-        <v>5001</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>137</v>
-      </c>
+        <v>3004</v>
+      </c>
+      <c r="D38" s="12"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="11"/>
-      <c r="B39" s="14"/>
+      <c r="B39" s="14" t="s">
+        <v>147</v>
+      </c>
       <c r="C39" s="14">
-        <v>5002</v>
+        <v>4001</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="11"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14">
-        <v>5003</v>
+        <v>4002</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="11"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14">
-        <v>5004</v>
-      </c>
-      <c r="D41" s="12"/>
+        <v>4003</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="11"/>
-      <c r="B42" s="14" t="s">
-        <v>155</v>
-      </c>
+      <c r="B42" s="14"/>
       <c r="C42" s="14">
-        <v>6001</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>140</v>
-      </c>
+        <v>4004</v>
+      </c>
+      <c r="D42" s="12"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="11"/>
-      <c r="B43" s="14"/>
+      <c r="B43" s="14" t="s">
+        <v>236</v>
+      </c>
       <c r="C43" s="14">
-        <v>6002</v>
+        <v>5001</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>141</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="11"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14">
-        <v>6003</v>
+        <v>5002</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>142</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="11"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14">
-        <v>6004</v>
-      </c>
-      <c r="D45" s="12"/>
+        <v>5003</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="11"/>
-      <c r="B46" s="14" t="s">
-        <v>156</v>
-      </c>
+      <c r="B46" s="14"/>
       <c r="C46" s="14">
-        <v>7001</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>143</v>
-      </c>
+        <v>5004</v>
+      </c>
+      <c r="D46" s="12"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="11"/>
-      <c r="B47" s="14"/>
+      <c r="B47" s="14" t="s">
+        <v>237</v>
+      </c>
       <c r="C47" s="14">
-        <v>7002</v>
+        <v>6001</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>144</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="11"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14">
-        <v>7003</v>
+        <v>6002</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>145</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="11"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14">
-        <v>7004</v>
-      </c>
-      <c r="D49" s="12"/>
+        <v>6003</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="11"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14">
-        <v>8001</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>146</v>
-      </c>
+        <v>6004</v>
+      </c>
+      <c r="D50" s="12"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="11"/>
-      <c r="B51" s="14"/>
+      <c r="B51" s="14" t="s">
+        <v>148</v>
+      </c>
       <c r="C51" s="14">
-        <v>8002</v>
+        <v>7001</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="11"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14">
-        <v>8003</v>
+        <v>7002</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="11"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14">
-        <v>8004</v>
-      </c>
-      <c r="D53" s="12"/>
+        <v>7003</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="11"/>
-      <c r="B54" s="14" t="s">
-        <v>157</v>
-      </c>
+      <c r="B54" s="14"/>
       <c r="C54" s="14">
-        <v>9001</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>146</v>
-      </c>
+        <v>7004</v>
+      </c>
+      <c r="D54" s="12"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="11"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14">
-        <v>9002</v>
+        <v>8001</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="11"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14">
-        <v>9003</v>
+        <v>8002</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="11"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14">
-        <v>9004</v>
-      </c>
-      <c r="D57" s="12"/>
+        <v>8003</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="11"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14">
-        <v>10001</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>158</v>
-      </c>
+        <v>8004</v>
+      </c>
+      <c r="D58" s="12"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="11"/>
-      <c r="B59" s="14"/>
+      <c r="B59" s="14" t="s">
+        <v>149</v>
+      </c>
       <c r="C59" s="14">
-        <v>10002</v>
+        <v>9001</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="11"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14">
-        <v>10003</v>
+        <v>9002</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="11"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14">
-        <v>10004</v>
-      </c>
-      <c r="D61" s="12"/>
+        <v>9003</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C62" s="89" t="s">
-        <v>101</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>123</v>
-      </c>
+      <c r="A62" s="11"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14">
+        <v>9004</v>
+      </c>
+      <c r="D62" s="12"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="11"/>
       <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="12"/>
+      <c r="C63" s="14">
+        <v>10001</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="11"/>
       <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="12"/>
+      <c r="C64" s="14">
+        <v>10002</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="77" t="s">
-        <v>188</v>
-      </c>
-      <c r="B65" s="78" t="s">
+      <c r="A65" s="11"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14">
+        <v>10003</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="11"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14">
+        <v>10004</v>
+      </c>
+      <c r="D66" s="12"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="11"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="12"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="11"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="12"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="77" t="s">
+        <v>180</v>
+      </c>
+      <c r="B70" s="78" t="s">
+        <v>179</v>
+      </c>
+      <c r="C70" s="79" t="s">
         <v>187</v>
       </c>
-      <c r="C65" s="79" t="s">
-        <v>195</v>
-      </c>
-      <c r="D65" s="78" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="81"/>
-      <c r="B66" s="82"/>
-      <c r="C66" s="83" t="s">
-        <v>189</v>
-      </c>
-      <c r="D66" s="82" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="81"/>
-      <c r="B67" s="82"/>
-      <c r="C67" s="83" t="s">
-        <v>190</v>
-      </c>
-      <c r="D67" s="82" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="81"/>
-      <c r="B68" s="82"/>
-      <c r="C68" s="83" t="s">
-        <v>191</v>
-      </c>
-      <c r="D68" s="82" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="81"/>
-      <c r="B69" s="82"/>
-      <c r="C69" s="83" t="s">
-        <v>192</v>
-      </c>
-      <c r="D69" s="82" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="81"/>
-      <c r="B70" s="82"/>
-      <c r="C70" s="83" t="s">
-        <v>193</v>
-      </c>
-      <c r="D70" s="82" t="s">
-        <v>205</v>
+      <c r="D70" s="78" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="81"/>
       <c r="B71" s="82"/>
       <c r="C71" s="83" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="D71" s="82" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="81"/>
       <c r="B72" s="82"/>
       <c r="C72" s="83" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D72" s="82" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="81"/>
       <c r="B73" s="82"/>
       <c r="C73" s="83" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D73" s="82" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="81"/>
       <c r="B74" s="82"/>
       <c r="C74" s="83" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D74" s="82" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="81"/>
       <c r="B75" s="82"/>
       <c r="C75" s="83" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D75" s="82" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="81"/>
       <c r="B76" s="82"/>
       <c r="C76" s="83" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D76" s="82" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="81"/>
       <c r="B77" s="82"/>
       <c r="C77" s="83" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D77" s="82" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="81"/>
       <c r="B78" s="82"/>
       <c r="C78" s="83" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D78" s="82" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="81"/>
       <c r="B79" s="82"/>
       <c r="C79" s="83" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D79" s="82" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="81"/>
+      <c r="B80" s="82"/>
+      <c r="C80" s="83" t="s">
+        <v>169</v>
+      </c>
+      <c r="D80" s="82" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="81"/>
+      <c r="B81" s="82"/>
+      <c r="C81" s="83" t="s">
+        <v>168</v>
+      </c>
+      <c r="D81" s="82" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="81"/>
+      <c r="B82" s="82"/>
+      <c r="C82" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="D82" s="82" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="81"/>
+      <c r="B83" s="82"/>
+      <c r="C83" s="83" t="s">
+        <v>166</v>
+      </c>
+      <c r="D83" s="82" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="81"/>
+      <c r="B84" s="82"/>
+      <c r="C84" s="83" t="s">
+        <v>165</v>
+      </c>
+      <c r="D84" s="82" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="85"/>
+      <c r="B85" s="86"/>
+      <c r="C85" s="87" t="s">
+        <v>163</v>
+      </c>
+      <c r="D85" s="86" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="B86" s="82" t="s">
+        <v>213</v>
+      </c>
+      <c r="C86" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="D86" s="82" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="85"/>
+      <c r="B87" s="94" t="s">
+        <v>245</v>
+      </c>
+      <c r="C87" s="87" t="s">
+        <v>216</v>
+      </c>
+      <c r="D87" s="86" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="B88" s="82" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="85"/>
-      <c r="B80" s="86"/>
-      <c r="C80" s="87" t="s">
-        <v>171</v>
-      </c>
-      <c r="D80" s="86" t="s">
+      <c r="C88" s="83" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="81" t="s">
+      <c r="D88" s="82" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="85"/>
+      <c r="B89" s="94" t="s">
+        <v>245</v>
+      </c>
+      <c r="C89" s="87" t="s">
         <v>216</v>
       </c>
-      <c r="B81" s="82" t="s">
-        <v>221</v>
-      </c>
-      <c r="C81" s="83" t="s">
-        <v>223</v>
-      </c>
-      <c r="D81" s="82" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="85"/>
-      <c r="B82" s="86"/>
-      <c r="C82" s="87" t="s">
+      <c r="D89" s="86" t="s">
         <v>224</v>
       </c>
-      <c r="D82" s="86" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="81" t="s">
-        <v>217</v>
-      </c>
-      <c r="B83" s="82" t="s">
-        <v>222</v>
-      </c>
-      <c r="C83" s="83" t="s">
-        <v>223</v>
-      </c>
-      <c r="D83" s="82" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="85"/>
-      <c r="B84" s="86"/>
-      <c r="C84" s="87" t="s">
-        <v>224</v>
-      </c>
-      <c r="D84" s="86" t="s">
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="81" t="s">
+        <v>233</v>
+      </c>
+      <c r="B90" s="82" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="69" t="s">
-        <v>170</v>
-      </c>
-      <c r="B85" s="74" t="s">
-        <v>166</v>
-      </c>
-      <c r="C85" s="70" t="s">
-        <v>172</v>
-      </c>
-      <c r="D85" s="74" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="71"/>
-      <c r="B86" s="75"/>
-      <c r="C86" s="68" t="s">
-        <v>181</v>
-      </c>
-      <c r="D86" s="75" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="71"/>
-      <c r="B87" s="75"/>
-      <c r="C87" s="68" t="s">
-        <v>196</v>
-      </c>
-      <c r="D87" s="75" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="71"/>
-      <c r="B88" s="75"/>
-      <c r="C88" s="68" t="s">
-        <v>197</v>
-      </c>
-      <c r="D88" s="75" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="71"/>
-      <c r="B89" s="75"/>
-      <c r="C89" s="68" t="s">
-        <v>198</v>
-      </c>
-      <c r="D89" s="75" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="71"/>
-      <c r="B90" s="75"/>
-      <c r="C90" s="68" t="s">
-        <v>199</v>
-      </c>
-      <c r="D90" s="75" t="s">
-        <v>182</v>
+      <c r="C90" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="D90" s="82" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="71"/>
-      <c r="B91" s="75"/>
-      <c r="C91" s="68" t="s">
-        <v>200</v>
-      </c>
-      <c r="D91" s="75" t="s">
-        <v>182</v>
+      <c r="A91" s="85"/>
+      <c r="B91" s="94" t="s">
+        <v>244</v>
+      </c>
+      <c r="C91" s="87" t="s">
+        <v>216</v>
+      </c>
+      <c r="D91" s="86" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="71"/>
-      <c r="B92" s="75"/>
-      <c r="C92" s="68" t="s">
-        <v>201</v>
-      </c>
-      <c r="D92" s="75" t="s">
-        <v>182</v>
+      <c r="A92" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="B92" s="74" t="s">
+        <v>158</v>
+      </c>
+      <c r="C92" s="70" t="s">
+        <v>164</v>
+      </c>
+      <c r="D92" s="74" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="71"/>
       <c r="B93" s="75"/>
       <c r="C93" s="68" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="D93" s="75" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="72"/>
-      <c r="B94" s="76"/>
-      <c r="C94" s="73"/>
-      <c r="D94" s="76"/>
+      <c r="A94" s="71"/>
+      <c r="B94" s="75"/>
+      <c r="C94" s="68" t="s">
+        <v>188</v>
+      </c>
+      <c r="D94" s="75" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="71"/>
+      <c r="B95" s="75"/>
+      <c r="C95" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="D95" s="75" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="71"/>
+      <c r="B96" s="75"/>
+      <c r="C96" s="68" t="s">
+        <v>190</v>
+      </c>
+      <c r="D96" s="75" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="71"/>
+      <c r="B97" s="75"/>
+      <c r="C97" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="D97" s="75" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="71"/>
+      <c r="B98" s="75"/>
+      <c r="C98" s="68" t="s">
+        <v>192</v>
+      </c>
+      <c r="D98" s="75" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="71"/>
+      <c r="B99" s="75"/>
+      <c r="C99" s="68" t="s">
+        <v>193</v>
+      </c>
+      <c r="D99" s="75" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="71"/>
+      <c r="B100" s="75"/>
+      <c r="C100" s="68" t="s">
+        <v>194</v>
+      </c>
+      <c r="D100" s="75" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="72"/>
+      <c r="B101" s="76"/>
+      <c r="C101" s="73"/>
+      <c r="D101" s="76"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
